--- a/biology/Botanique/Desprat_et_Saint_Verny/Desprat_et_Saint_Verny.xlsx
+++ b/biology/Botanique/Desprat_et_Saint_Verny/Desprat_et_Saint_Verny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Desprat et Saint Verny (anciennement Desprat Vins) est une entreprise française spécialisée dans la distribution de vins et spiritueux, notamment dans la distribution des Côtes-d'auvergne.  
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille d'agriculteurs Desprat, originaire de Lalo de Yolet, s’installe à Aurillac au XIXe siècle. D’abord aubergiste, elle s’oriente vers le commerce de vin. En 1885, Soubrier crée un commerce de vin. Félix Desprat (fils de Jean Desprat, aubergiste), qui a épousé sa fille, rentre dans le commerce qui devient « Soubrier et gendrs ». Après le décès de son beau-père, Félix Desprat dirige le commerce. En 1937, après un stage de tonnellerie dans l’Hérault, Jean Desprat (fils de Félix) prend la tête du commerce, à la suite du décès de son père. Il dirige l’entreprise jusqu’en 1968 avant de céder celle-ci à ses deux fils Michel et Jacques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille d'agriculteurs Desprat, originaire de Lalo de Yolet, s’installe à Aurillac au XIXe siècle. D’abord aubergiste, elle s’oriente vers le commerce de vin. En 1885, Soubrier crée un commerce de vin. Félix Desprat (fils de Jean Desprat, aubergiste), qui a épousé sa fille, rentre dans le commerce qui devient « Soubrier et gendrs ». Après le décès de son beau-père, Félix Desprat dirige le commerce. En 1937, après un stage de tonnellerie dans l’Hérault, Jean Desprat (fils de Félix) prend la tête du commerce, à la suite du décès de son père. Il dirige l’entreprise jusqu’en 1968 avant de céder celle-ci à ses deux fils Michel et Jacques.
 Depuis l’âge de 16 ans Michel travaille dans l’entreprise familiale. Employé en 1952, il dirige l’entreprise avec son frère Jacques à partir de 1968. Jacques est chargé de livrer les produits aux clients. En 1965, Jacques effectue un stage d’œnologie à Béziers. En 1968 l’entreprise devient Desprat Frères et s’installe dans le chai qui vient d’être construit chemin de Patay[réf. nécessaire]. En 1970, Michel est élu président de la Fédération Départementale du Commerce en Gros des Vins Cidres Spiritueux et Liqueurs (CNVS)[réf. nécessaire].
 En 1984, Pierre Desprat dirige l’entreprise Desprat frères qui devient Desprat vins. Pierre débute aux Éditions Bordas puis chez Pipière distribution. En 1987, la société se rapproche de[évasif] la Cave des Coteaux d'Auvergne. Depuis le Salon international de l'agriculture de 1995, l’entreprise est fournisseur de cafés et restaurants. Aujourd’hui[Quand ?] 15 % du chiffre d’affaires est réalisé sur Paris. En 2005, la maison Desprat Vins investit dans une distillerie indépendante d’Auvergne : la Distillerie Louis Couderc, liquoriste depuis 1908.
 En 2007, la société ouvre un magasin à Aubière dans l'agglomération de Clermont-Ferrand.
-En octobre 2017, l'entreprise Desprat Vins fusionne avec la cave Saint-Verny de Veyre-Monton, propriété du groupe coopératif Limagrain. La nouvelle société dénommée Desprat Saint-Verny vignoble est détenue à parts égales par Limagrain et Pierre Desprat. Elle associe « le premier metteur en marché des vins d’Auvergne, Desprat, et le principal producteur du Puy-de-Dôme, Saint-Verny »[3].
+En octobre 2017, l'entreprise Desprat Vins fusionne avec la cave Saint-Verny de Veyre-Monton, propriété du groupe coopératif Limagrain. La nouvelle société dénommée Desprat Saint-Verny vignoble est détenue à parts égales par Limagrain et Pierre Desprat. Elle associe « le premier metteur en marché des vins d’Auvergne, Desprat, et le principal producteur du Puy-de-Dôme, Saint-Verny ».
 </t>
         </is>
       </c>
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
